--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_part.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C279A0B0-CF39-4F4A-8EFB-0651A3DE8E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580ED373-3294-4FEB-8101-CFEE073F5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="191">
   <si>
     <t>type</t>
   </si>
@@ -376,9 +376,6 @@
     <t>concat(${p_recorder}, '_', ${p_site_id}, '_', if(${last-saved#p_numero_menage}!=null,${last-saved#p_numero_menage} + 1,1))</t>
   </si>
   <si>
-    <t>concat(${p_numero_menage}, '-' ,${p_num})</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ethnie </t>
   </si>
   <si>
@@ -535,9 +532,6 @@
     <t>Je.n.étais.pas.au.courant.du.TDM.</t>
   </si>
   <si>
-    <t>Le.distributeur.n'est.pas.venu.chez.moi.</t>
-  </si>
-  <si>
     <t>Autres.raisons.</t>
   </si>
   <si>
@@ -547,13 +541,70 @@
     <t>select_one nb_fois_pris_med_lf</t>
   </si>
   <si>
-    <t>ci_p_2406_2</t>
-  </si>
-  <si>
-    <t>ci_lf_pretas_2406_3_fts_v2</t>
-  </si>
-  <si>
-    <t>(2024 Juillet) 2. Pre-TAS FL Formulaire Site &amp; participant V2</t>
+    <t>Le.distributeur.n.est.pas.venu.chez.moi.</t>
+  </si>
+  <si>
+    <t>Pas d.éducation formelle</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 2. Pre-TAS FL Formulaire Site &amp; participant V3</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_2406_3_fts_v3</t>
+  </si>
+  <si>
+    <t>ci_p_2406_3</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Juin</t>
+  </si>
+  <si>
+    <t>Juillet</t>
+  </si>
+  <si>
+    <t>Août</t>
+  </si>
+  <si>
+    <t>Septembre</t>
+  </si>
+  <si>
+    <t>Octobre</t>
+  </si>
+  <si>
+    <t>Novembre</t>
+  </si>
+  <si>
+    <t>Décembre</t>
+  </si>
+  <si>
+    <t>mois</t>
+  </si>
+  <si>
+    <t>select_one mois</t>
+  </si>
+  <si>
+    <t>. &gt; 1914 and. &lt; 2025</t>
+  </si>
+  <si>
+    <t>Veuillez entrer une année correcte</t>
+  </si>
+  <si>
+    <t>concat(${p_recorder}, '_', ${p_site_id}, '_', ${p_num})</t>
   </si>
 </sst>
 </file>
@@ -1080,11 +1131,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1382,7 +1433,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>110</v>
@@ -1600,7 +1651,7 @@
         <v>98</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>18</v>
@@ -1616,13 +1667,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1636,17 +1687,17 @@
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="31.5">
       <c r="A24" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -1660,15 +1711,19 @@
         <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17" t="s">
         <v>18</v>
@@ -1678,13 +1733,13 @@
     </row>
     <row r="26" spans="1:14" s="1" customFormat="1">
       <c r="A26" s="16" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="16"/>
@@ -1699,7 +1754,7 @@
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1">
       <c r="A27" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="18"/>
@@ -1714,13 +1769,13 @@
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" ht="31.5">
       <c r="A28" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C28" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="16"/>
@@ -1735,13 +1790,13 @@
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1">
       <c r="A29" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="C29" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
@@ -1756,16 +1811,16 @@
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1" ht="31.5">
       <c r="A30" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -1779,20 +1834,20 @@
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1">
       <c r="A31" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="C31" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
@@ -1905,17 +1960,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2317D3B-9C3B-428F-A099-4FF2A523DEB9}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11" style="2"/>
@@ -2053,161 +2108,161 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -2218,7 +2273,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>105</v>
@@ -2230,25 +2285,25 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -2259,61 +2314,61 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" s="1"/>
     </row>
@@ -2323,49 +2378,145 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2377,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2404,7 +2555,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>172</v>

--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_part.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580ED373-3294-4FEB-8101-CFEE073F5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B6BF7-B4B3-48F7-AAC8-66C0AA40B0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="192">
   <si>
     <t>type</t>
   </si>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t>concat(${p_recorder}, '_', ${p_site_id}, '_', ${p_num})</t>
+  </si>
+  <si>
+    <t>Diplôme d.études supérieures / Diplôme d.études supérieures</t>
   </si>
 </sst>
 </file>
@@ -1131,11 +1134,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1962,9 +1965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2317D3B-9C3B-428F-A099-4FF2A523DEB9}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2166,7 +2169,7 @@
         <v>136</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>135</v>
